--- a/TopAsia Test Results/RECHARGE USING BANKS/RECHARGE USING BANKS [TEMP].xlsx
+++ b/TopAsia Test Results/RECHARGE USING BANKS/RECHARGE USING BANKS [TEMP].xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Result of RECHARGE USING BANKS</t>
   </si>
@@ -22,13 +22,13 @@
     <t>Start</t>
   </si>
   <si>
-    <t>2021-04-07 01:47:07</t>
+    <t>2021-04-07 17:23:08</t>
   </si>
   <si>
     <t>Account Test</t>
   </si>
   <si>
-    <t>Username: tuananhle20210407014714, pass: 123456</t>
+    <t>Username: tuananhle20210405110106, pass: 123456</t>
   </si>
   <si>
     <t>#</t>
@@ -55,136 +55,118 @@
     <t>Case: iBanking Vietcombank</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Không nhập số tiền</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số tiền</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Số tiền nhận được hiển thị phải được tính tương ứng với số tiền nhập và gói khuyến mãi</t>
+  </si>
+  <si>
+    <t>622456000,	1244912000,	24898240000</t>
   </si>
   <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Nhập tiền ít hơn 50K</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Số tiền nạp tối thiểu là 50 K</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Nhập tiền bằng 50K</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Nhập tiền nhiều hơn 1.000.000K</t>
-  </si>
-  <si>
-    <t>1000001</t>
-  </si>
-  <si>
-    <t>Số tiền nạp tối đa là 1.000.000 K</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Nhập tiền bằng 1.000.000K</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Nhập tiền lớn hơn 50k nhỏ hơn 1.000.000k</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Nhập chữ ở ô số tiền</t>
-  </si>
-  <si>
-    <t>Numberofmoney</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>Số tiền hiển thị phải tương đương với số tiền nhập</t>
-  </si>
-  <si>
-    <t>924879</t>
-  </si>
-  <si>
-    <t>924879000</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>Text:  924.879.000 VNĐ</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Không nhập tên người gửi</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập tên người gửi</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Nhập tên người gửi</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Không nhập mã giao dịch</t>
-  </si>
-  <si>
-    <t>Vui lòng nhập số lệnh giao dịch</t>
-  </si>
-  <si>
-    <t>Hiển thị lỗi khi nhập đúng</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Nhập mã giao dịch</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>Nhập số tiền</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>Case: iBanking ACB</t>
+  </si>
+  <si>
+    <t>780373000,	1560746000,	31214920000</t>
+  </si>
+  <si>
+    <t>Case: iBanking DongA</t>
+  </si>
+  <si>
+    <t>492336000,	984672000,	19693440000</t>
+  </si>
+  <si>
+    <t>Case: iBanking Vietinbank</t>
+  </si>
+  <si>
+    <t>902973000,	1805946000,	36118920000</t>
+  </si>
+  <si>
+    <t>Case: iBanking Sacombank</t>
+  </si>
+  <si>
+    <t>452837000,	905674000,	18113480000</t>
+  </si>
+  <si>
+    <t>Case: iBanking Techcombank</t>
+  </si>
+  <si>
+    <t>181874000,	363748000,	7274960000</t>
+  </si>
+  <si>
+    <t>Case: ATM Vietcombank</t>
+  </si>
+  <si>
+    <t>890294000,	1780588000,	35611760000</t>
+  </si>
+  <si>
+    <t>Case: ATM ACB</t>
+  </si>
+  <si>
+    <t>923621000,	1847242000,	36944840000</t>
+  </si>
+  <si>
+    <t>Case: ATM DongA</t>
+  </si>
+  <si>
+    <t>76445000,	152890000,	3057800000</t>
+  </si>
+  <si>
+    <t>Case: ATM Vietinbank</t>
+  </si>
+  <si>
+    <t>505882000,	1011764000,	20235280000</t>
+  </si>
+  <si>
+    <t>Case: ATM Sacombank</t>
+  </si>
+  <si>
+    <t>131251000,	262502000,	5250040000</t>
+  </si>
+  <si>
+    <t>Case: ATM Techcombank</t>
+  </si>
+  <si>
+    <t>869833000,	1739666000,	34793320000</t>
+  </si>
+  <si>
+    <t>Case: Cash Vietcombank</t>
+  </si>
+  <si>
+    <t>762060000,	1524120000,	30482400000</t>
+  </si>
+  <si>
+    <t>Case: Cash ACB</t>
+  </si>
+  <si>
+    <t>387296000,	774592000,	15491840000</t>
+  </si>
+  <si>
+    <t>Case: Cash DongA</t>
+  </si>
+  <si>
+    <t>94212000,	188424000,	3768480000</t>
+  </si>
+  <si>
+    <t>Case: Cash Vietinbank</t>
+  </si>
+  <si>
+    <t>152751000,	305502000,	6110040000</t>
+  </si>
+  <si>
+    <t>Case: Cash Sacombank</t>
+  </si>
+  <si>
+    <t>407014000,	814028000,	16280560000</t>
+  </si>
+  <si>
+    <t>Case: Cash Techcombank</t>
+  </si>
+  <si>
+    <t>475091000,	950182000,	19003640000</t>
   </si>
 </sst>
 </file>
@@ -221,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,12 +234,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -278,13 +254,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -647,6 +622,9 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7">
+        <v>622456</v>
+      </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
@@ -658,233 +636,217 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>780373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>492336</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>902973</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14">
-        <f> 924.879.000 VNĐ</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>452837</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>181874</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" t="s">
-        <v>48</v>
+        <v>26</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>890294</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>923621</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -892,7 +854,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -908,75 +870,295 @@
       <c r="B23" t="s">
         <v>14</v>
       </c>
+      <c r="C23">
+        <v>76445</v>
+      </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>505882</v>
+      </c>
+      <c r="D25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="C27">
+        <v>131251</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
       </c>
       <c r="F27" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29">
+        <v>869833</v>
+      </c>
+      <c r="D29" t="s">
+        <v>38</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <v>762060</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33">
+        <v>387296</v>
+      </c>
+      <c r="D33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>94212</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37">
+        <v>152751</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>407014</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <v>475091</v>
+      </c>
+      <c r="D41" t="s">
+        <v>50</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+      <c r="F41" s="4" t="s">
         <v>16</v>
       </c>
     </row>
